--- a/data/trans_dic/POLIPATOLOGIA_5-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_5-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,42; 4,63</t>
+          <t>1,46; 4,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,2</t>
+          <t>0,0; 1,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 6,27</t>
+          <t>2,19; 6,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,4; 8,04</t>
+          <t>4,17; 7,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>2,74; 7,69</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>2,46; 7,61</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>2,21; 7,25</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,52; 7,48</t>
+          <t>2,48; 7,02</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 11,84</t>
+          <t>7,23; 11,98</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,09</t>
+          <t>2,36; 5,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 3,27</t>
+          <t>1,12; 3,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>2,95; 6,07</t>
+          <t>2,9; 5,99</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,16; 9,03</t>
+          <t>6,06; 9,05</t>
         </is>
       </c>
     </row>
@@ -864,12 +865,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,19; 4,35</t>
+          <t>1,03; 4,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,95; 3,78</t>
+          <t>0,94; 3,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,47 +880,47 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 9,41</t>
+          <t>5,19; 9,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 6,28</t>
+          <t>2,12; 6,43</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,96; 7,86</t>
+          <t>2,73; 7,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,26; 7,21</t>
+          <t>2,36; 7,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,99; 15,36</t>
+          <t>9,71; 14,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,98; 4,53</t>
+          <t>1,92; 4,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>2,05; 4,81</t>
+          <t>2,17; 5,05</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1,71; 4,48</t>
+          <t>1,68; 4,38</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>7,78; 11,44</t>
+          <t>7,88; 11,21</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,88; 4,98</t>
+          <t>1,9; 5,14</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,96</t>
+          <t>3,15; 6,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,52; 4,49</t>
+          <t>1,45; 4,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,62; 11,74</t>
+          <t>2,56; 11,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,87; 14,3</t>
+          <t>4,97; 14,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,05</t>
+          <t>3,7; 9,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,37; 21,21</t>
+          <t>9,46; 21,48</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,74; 25,59</t>
+          <t>16,12; 25,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 6,23</t>
+          <t>3,04; 6,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3,88; 7,05</t>
+          <t>3,94; 6,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,71</t>
+          <t>3,98; 7,53</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,06; 14,09</t>
+          <t>4,29; 14,33</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,42; 5,73</t>
+          <t>3,46; 5,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 7,88</t>
+          <t>4,64; 7,56</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 5,08</t>
+          <t>2,82; 5,04</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,19; 12,63</t>
+          <t>9,26; 12,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 7,9</t>
+          <t>4,51; 8,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,98</t>
+          <t>4,92; 8,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,34; 8,71</t>
+          <t>5,26; 8,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,32; 62,78</t>
+          <t>11,34; 63,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,08; 6,02</t>
+          <t>4,06; 6,11</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>5,15; 7,48</t>
+          <t>5,14; 7,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,07; 6,11</t>
+          <t>4,16; 6,21</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>10,95; 46,7</t>
+          <t>10,79; 43,52</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,93; 7,13</t>
+          <t>2,82; 7,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,32; 5,71</t>
+          <t>2,42; 5,76</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,31</t>
+          <t>4,61; 8,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,6; 12,43</t>
+          <t>7,8; 12,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,17</t>
+          <t>4,9; 9,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>11,37; 16,1</t>
+          <t>11,22; 16,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,73; 15,99</t>
+          <t>11,09; 16,4</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,76; 26,58</t>
+          <t>16,73; 26,65</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,57</t>
+          <t>4,53; 7,71</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>8,12; 11,54</t>
+          <t>8,03; 11,47</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>8,56; 11,81</t>
+          <t>8,72; 12,15</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>14,96; 20,68</t>
+          <t>15,07; 20,55</t>
         </is>
       </c>
     </row>
@@ -1429,7 +1430,7 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,27</t>
+          <t>0,0; 2,36</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,47 +1440,47 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,83</t>
+          <t>0,89; 3,89</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>6,63; 9,84</t>
+          <t>6,74; 9,92</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,56; 15,81</t>
+          <t>11,64; 15,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>10,43; 14,49</t>
+          <t>10,27; 14,58</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,78; 21,09</t>
+          <t>16,62; 21,15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>5,59; 8,0</t>
+          <t>5,51; 8,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>9,29; 12,71</t>
+          <t>9,29; 12,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>8,31; 11,81</t>
+          <t>8,24; 11,69</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>12,88; 16,64</t>
+          <t>13,0; 16,66</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,84; 4,08</t>
+          <t>2,86; 4,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,12; 4,52</t>
+          <t>3,14; 4,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>2,98; 4,25</t>
+          <t>2,92; 4,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,04; 9,04</t>
+          <t>6,3; 9,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,88; 7,61</t>
+          <t>5,86; 7,68</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,89; 10,94</t>
+          <t>8,86; 11,01</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,74; 10,94</t>
+          <t>8,71; 10,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,85; 36,23</t>
+          <t>16,01; 36,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>4,58; 5,62</t>
+          <t>4,58; 5,67</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6,23; 7,5</t>
+          <t>6,3; 7,61</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,1; 7,35</t>
+          <t>6,07; 7,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>11,85; 24,65</t>
+          <t>11,85; 23,0</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con cinco o más enfermedades crónicas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>12853</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>992</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16455</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>29797</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14538</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>13727</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>15983</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>40979</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>27391</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>14719</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>32439</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>70777</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6897; 23091</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5309</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9382; 26821</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>21071; 40172</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>8404; 23580</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>7723; 23918</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>8602; 24351</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>32361; 53608</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>18399; 39874</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8401; 25748</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>22546; 46473</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>57715; 86197</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8295</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8253</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5397</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>31840</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>14278</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>16618</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>15875</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>46721</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22573</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>24872</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21273</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>78562</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3790; 15060</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3950; 15281</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1918; 12288</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>23465; 42421</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>7876; 23915</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>9227; 26839</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>8783; 27126</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>37161; 57314</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>14176; 34488</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>16398; 38192</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>12584; 32804</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>65743; 93553</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>17863</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>30255</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>14228</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>46210</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14088</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>16503</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>24224</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33998</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31952</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>46758</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>38453</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>80208</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10308; 27892</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19836; 43414</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7553; 22614</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>17094; 77837</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8336; 24015</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9629; 25096</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15712; 35691</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26903; 42681</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21564; 44323</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>35067; 62114</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>27354; 51825</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>35846; 119710</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>55322</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>69300</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>43469</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>111030</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>42688</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>50928</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>57069</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>297180</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>98010</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>120228</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>100538</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>408209</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>42833; 70134</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>53723; 87675</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>32375; 57993</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>95787; 131742</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>32193; 57895</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>37681; 67030</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>43442; 72845</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>110955; 625210</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>79207; 119328</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>98934; 145738</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>82128; 122662</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>217270; 876078</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16590</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>19079</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>38800</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>47005</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>38412</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>103391</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>99135</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>193991</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>55002</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>122469</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>137935</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>240996</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9896; 25641</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>12367; 29431</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>28598; 52499</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>37072; 60764</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>27876; 51330</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>85440; 124051</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>81857; 121095</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>140797; 224242</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>41635; 70904</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>102180; 145851</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>118490; 165102</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>198317; 270573</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>914</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1135</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>4409</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>102544</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>149839</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>133884</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>143271</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>103458</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>151811</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>135019</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>147680</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4587</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 6302</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5700</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2144; 9346</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>84190; 123892</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>129147; 176116</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>111137; 157761</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>126543; 161063</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>85231; 126179</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>127915; 177190</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>112887; 160054</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>130279; 166871</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1048</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>441</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1432</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>111838</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>129852</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>119484</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>270291</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>226549</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>351006</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>346171</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>756140</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>338386</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>480858</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>465655</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1026432</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>93569; 133017</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>107291; 154862</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>98930; 139955</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>212693; 305014</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>198097; 259381</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>314422; 390724</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>307526; 383064</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>572794; 1293143</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>304440; 376632</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>439088; 530547</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>419782; 508126</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>824372; 1599441</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/POLIPATOLOGIA_5-Clase-trans_dic.xlsx
+++ b/data/trans_dic/POLIPATOLOGIA_5-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
